--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
+    <t xml:space="preserve">Full Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
   </si>
   <si>
     <t xml:space="preserve">User Number1</t>
@@ -47,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -75,12 +75,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -132,7 +126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,10 +140,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,10 +163,10 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
@@ -201,7 +191,7 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
